--- a/Master NIEM Document/Mapping_Spreadsheets/11 Creating New Objects - Complex Objects.xlsx
+++ b/Master NIEM Document/Mapping_Spreadsheets/11 Creating New Objects - Complex Objects.xlsx
@@ -5,15 +5,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - CrashDriverReport Com" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Crash Driver Report" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
-  <si>
-    <t>CrashDriverReport Complete</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+  <si>
+    <t>Crash Driver Report</t>
   </si>
   <si>
     <t>Class</t>
@@ -283,6 +283,9 @@
     <t>nc:RoleOfPerson</t>
   </si>
   <si>
+    <t>reference</t>
+  </si>
+  <si>
     <t>A person of whom the role object is a function.</t>
   </si>
   <si>
@@ -439,13 +442,13 @@
     <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
   </si>
   <si>
-    <t>nc:InjuryCategoryAbstract</t>
-  </si>
-  <si>
-    <t>A data concept for a kind of bodily harm or injury.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjuryCategoryAbstract]</t>
+    <t>nc:InjurySeverityAbstract</t>
+  </si>
+  <si>
+    <t>A data concept for a severity of an injury received by a person involved into a Traffic Accident.</t>
+  </si>
+  <si>
+    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]</t>
   </si>
   <si>
     <t>Severity Code</t>
@@ -466,7 +469,7 @@
     <t>A severity of an injury received by a person, such as in a traffic accident or crash.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjuryCategoryAbstract]/j:InjurySeverityCode</t>
+    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]/j:InjurySeverityCode</t>
   </si>
   <si>
     <t>j:CrashPersonAugmentationPoint</t>
@@ -1192,7 +1195,7 @@
     <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1231,7 +1234,7 @@
     <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2956,9 +2959,11 @@
         <v>85</v>
       </c>
       <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="K18" t="s" s="23">
+        <v>90</v>
+      </c>
       <c r="L18" t="s" s="26">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M18" t="s" s="23">
         <v>22</v>
@@ -2966,7 +2971,7 @@
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" t="s" s="27">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -2976,10 +2981,10 @@
       <c r="D19" s="18"/>
       <c r="E19" s="30"/>
       <c r="F19" t="s" s="22">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s" s="23">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" t="s" s="23">
@@ -2988,7 +2993,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" t="s" s="26">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M19" t="s" s="23">
         <v>22</v>
@@ -2996,7 +3001,7 @@
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" t="s" s="27">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" ht="44.05" customHeight="1">
@@ -3006,19 +3011,19 @@
       <c r="D20" s="18"/>
       <c r="E20" s="30"/>
       <c r="F20" t="s" s="22">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s" s="23">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" t="s" s="23">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" t="s" s="26">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M20" t="s" s="23">
         <v>22</v>
@@ -3026,7 +3031,7 @@
       <c r="N20" s="24"/>
       <c r="O20" s="24"/>
       <c r="P20" t="s" s="27">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -3034,10 +3039,10 @@
         <v>83</v>
       </c>
       <c r="B21" t="s" s="20">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s" s="19">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s" s="20">
         <v>32</v>
@@ -3046,19 +3051,19 @@
         <v>22</v>
       </c>
       <c r="F21" t="s" s="22">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s" s="23">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" t="s" s="23">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
       <c r="L21" t="s" s="26">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s" s="23">
         <v>22</v>
@@ -3066,7 +3071,7 @@
       <c r="N21" s="24"/>
       <c r="O21" s="24"/>
       <c r="P21" t="s" s="27">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -3076,17 +3081,17 @@
       <c r="D22" s="18"/>
       <c r="E22" s="30"/>
       <c r="F22" t="s" s="22">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" t="s" s="23">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" t="s" s="26">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M22" t="s" s="23">
         <v>22</v>
@@ -3094,7 +3099,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="24"/>
       <c r="P22" t="s" s="27">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -3104,29 +3109,27 @@
       <c r="D23" s="18"/>
       <c r="E23" s="30"/>
       <c r="F23" t="s" s="22">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s" s="23">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H23" t="s" s="23">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" t="s" s="23">
-        <v>106</v>
-      </c>
-      <c r="K23" t="s" s="23">
-        <v>20</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="K23" s="24"/>
       <c r="L23" t="s" s="26">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
       <c r="P23" t="s" s="27">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -3136,19 +3139,19 @@
       <c r="D24" s="18"/>
       <c r="E24" s="30"/>
       <c r="F24" t="s" s="22">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s" s="23">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" t="s" s="23">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" t="s" s="26">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M24" t="s" s="23">
         <v>22</v>
@@ -3156,7 +3159,7 @@
       <c r="N24" s="24"/>
       <c r="O24" s="24"/>
       <c r="P24" t="s" s="27">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -3166,17 +3169,17 @@
       <c r="D25" s="18"/>
       <c r="E25" s="30"/>
       <c r="F25" t="s" s="22">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" t="s" s="23">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
       <c r="L25" t="s" s="26">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M25" t="s" s="23">
         <v>22</v>
@@ -3184,7 +3187,7 @@
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" t="s" s="27">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -3192,10 +3195,10 @@
         <v>83</v>
       </c>
       <c r="B26" t="s" s="20">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s" s="19">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s" s="20">
         <v>32</v>
@@ -3204,34 +3207,34 @@
         <v>22</v>
       </c>
       <c r="F26" t="s" s="22">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s" s="23">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
       <c r="J26" t="s" s="23">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" t="s" s="26">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
       <c r="O26" s="24"/>
       <c r="P26" t="s" s="27">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" t="s" s="19">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s" s="20">
         <v>1</v>
@@ -3240,10 +3243,10 @@
         <v>56</v>
       </c>
       <c r="F27" t="s" s="22">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s" s="23">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" t="s" s="23">
@@ -3252,7 +3255,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
       <c r="L27" t="s" s="26">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s" s="23">
         <v>59</v>
@@ -3260,7 +3263,7 @@
       <c r="N27" s="24"/>
       <c r="O27" s="24"/>
       <c r="P27" t="s" s="27">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -3277,12 +3280,14 @@
       </c>
       <c r="H28" s="24"/>
       <c r="I28" t="s" s="23">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="K28" t="s" s="23">
+        <v>90</v>
+      </c>
       <c r="L28" t="s" s="26">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M28" t="s" s="23">
         <v>22</v>
@@ -3290,7 +3295,7 @@
       <c r="N28" s="24"/>
       <c r="O28" s="24"/>
       <c r="P28" t="s" s="27">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
@@ -3300,19 +3305,19 @@
       <c r="D29" s="18"/>
       <c r="E29" s="30"/>
       <c r="F29" t="s" s="22">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G29" t="s" s="23">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" t="s" s="23">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
       <c r="L29" t="s" s="26">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M29" t="s" s="23">
         <v>22</v>
@@ -3320,18 +3325,18 @@
       <c r="N29" s="24"/>
       <c r="O29" s="24"/>
       <c r="P29" t="s" s="27">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s" s="20">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s" s="19">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s" s="20">
         <v>32</v>
@@ -3340,19 +3345,19 @@
         <v>22</v>
       </c>
       <c r="F30" t="s" s="22">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G30" t="s" s="23">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" t="s" s="23">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" t="s" s="26">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M30" t="s" s="23">
         <v>22</v>
@@ -3360,7 +3365,7 @@
       <c r="N30" s="24"/>
       <c r="O30" s="24"/>
       <c r="P30" t="s" s="27">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
@@ -3370,17 +3375,17 @@
       <c r="D31" s="18"/>
       <c r="E31" s="30"/>
       <c r="F31" t="s" s="22">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" t="s" s="23">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" t="s" s="26">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M31" t="s" s="23">
         <v>22</v>
@@ -3388,45 +3393,45 @@
       <c r="N31" s="24"/>
       <c r="O31" s="24"/>
       <c r="P31" t="s" s="27">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s" s="20">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s" s="19">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s" s="20">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s" s="21">
         <v>22</v>
       </c>
       <c r="F32" t="s" s="22">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G32" t="s" s="23">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" t="s" s="23">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K32" s="24"/>
       <c r="L32" t="s" s="26">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
       <c r="O32" s="24"/>
       <c r="P32" t="s" s="27">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
@@ -3436,57 +3441,57 @@
       <c r="D33" s="18"/>
       <c r="E33" s="30"/>
       <c r="F33" t="s" s="22">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" t="s" s="23">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" t="s" s="26">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
       <c r="O33" s="24"/>
       <c r="P33" t="s" s="27">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" ht="32.05" customHeight="1">
       <c r="A34" t="s" s="17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B34" t="s" s="20">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s" s="19">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s" s="20">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s" s="21">
         <v>22</v>
       </c>
       <c r="F34" t="s" s="22">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s" s="23">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" t="s" s="23">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K34" t="s" s="23">
         <v>20</v>
       </c>
       <c r="L34" t="s" s="26">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M34" t="s" s="23">
         <v>22</v>
@@ -3494,7 +3499,7 @@
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
       <c r="P34" t="s" s="27">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" ht="20.05" customHeight="1">
@@ -3504,13 +3509,13 @@
       <c r="D35" s="18"/>
       <c r="E35" s="30"/>
       <c r="F35" t="s" s="22">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G35" t="s" s="23">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H35" t="s" s="23">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I35" t="s" s="25">
         <v>17</v>
@@ -3520,7 +3525,7 @@
         <v>20</v>
       </c>
       <c r="L35" t="s" s="26">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M35" t="s" s="23">
         <v>22</v>
@@ -3528,53 +3533,53 @@
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
       <c r="P35" t="s" s="27">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" ht="32.05" customHeight="1">
       <c r="A36" t="s" s="17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s" s="20">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C36" t="s" s="19">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D36" t="s" s="20">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s" s="21">
         <v>22</v>
       </c>
       <c r="F36" t="s" s="22">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G36" t="s" s="23">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H36" t="s" s="23">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I36" t="s" s="23">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J36" s="24"/>
       <c r="K36" t="s" s="23">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L36" t="s" s="26">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M36" t="s" s="23">
         <v>22</v>
       </c>
       <c r="N36" t="s" s="23">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O36" s="24"/>
       <c r="P36" t="s" s="27">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -3584,10 +3589,10 @@
       <c r="D37" s="18"/>
       <c r="E37" s="30"/>
       <c r="F37" t="s" s="22">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G37" t="s" s="23">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" t="s" s="23">
@@ -3596,7 +3601,7 @@
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" t="s" s="26">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M37" t="s" s="23">
         <v>22</v>
@@ -3604,7 +3609,7 @@
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
       <c r="P37" t="s" s="27">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -3614,17 +3619,17 @@
       <c r="D38" s="18"/>
       <c r="E38" s="30"/>
       <c r="F38" t="s" s="22">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
       <c r="I38" t="s" s="23">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" t="s" s="26">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M38" t="s" s="23">
         <v>22</v>
@@ -3632,7 +3637,7 @@
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
       <c r="P38" t="s" s="27">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
@@ -3642,23 +3647,23 @@
       <c r="D39" s="18"/>
       <c r="E39" s="30"/>
       <c r="F39" t="s" s="22">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" t="s" s="23">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K39" t="s" s="23">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="24"/>
       <c r="N39" s="24"/>
       <c r="O39" s="24"/>
       <c r="P39" t="s" s="27">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -3668,16 +3673,16 @@
       <c r="D40" s="18"/>
       <c r="E40" s="30"/>
       <c r="F40" t="s" s="22">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
       <c r="I40" t="s" s="23">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J40" s="24"/>
       <c r="K40" t="s" s="23">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" t="s" s="23">
@@ -3686,7 +3691,7 @@
       <c r="N40" s="24"/>
       <c r="O40" s="24"/>
       <c r="P40" t="s" s="27">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
@@ -3694,10 +3699,10 @@
         <v>66</v>
       </c>
       <c r="B41" t="s" s="20">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C41" t="s" s="19">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s" s="20">
         <v>32</v>
@@ -3706,16 +3711,16 @@
         <v>22</v>
       </c>
       <c r="F41" t="s" s="22">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" t="s" s="23">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J41" s="24"/>
       <c r="K41" t="s" s="23">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" t="s" s="23">
@@ -3724,7 +3729,7 @@
       <c r="N41" s="24"/>
       <c r="O41" s="24"/>
       <c r="P41" t="s" s="27">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
@@ -3734,17 +3739,17 @@
       <c r="D42" s="18"/>
       <c r="E42" s="30"/>
       <c r="F42" t="s" s="22">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" t="s" s="23">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" t="s" s="26">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M42" t="s" s="23">
         <v>22</v>
@@ -3752,7 +3757,7 @@
       <c r="N42" s="24"/>
       <c r="O42" s="24"/>
       <c r="P42" t="s" s="27">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
@@ -3760,10 +3765,10 @@
         <v>66</v>
       </c>
       <c r="B43" t="s" s="20">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s" s="19">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D43" t="s" s="20">
         <v>32</v>
@@ -3772,25 +3777,25 @@
         <v>22</v>
       </c>
       <c r="F43" t="s" s="22">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G43" t="s" s="23">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" t="s" s="23">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K43" s="24"/>
       <c r="L43" t="s" s="26">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M43" s="24"/>
       <c r="N43" s="24"/>
       <c r="O43" s="24"/>
       <c r="P43" t="s" s="27">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
@@ -3800,19 +3805,19 @@
       <c r="D44" s="18"/>
       <c r="E44" s="30"/>
       <c r="F44" t="s" s="22">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G44" t="s" s="23">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H44" s="24"/>
       <c r="I44" t="s" s="23">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" t="s" s="26">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M44" t="s" s="23">
         <v>22</v>
@@ -3820,7 +3825,7 @@
       <c r="N44" s="24"/>
       <c r="O44" s="24"/>
       <c r="P44" t="s" s="27">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" ht="32.05" customHeight="1">
@@ -3830,19 +3835,19 @@
       <c r="D45" s="18"/>
       <c r="E45" s="30"/>
       <c r="F45" t="s" s="22">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G45" t="s" s="23">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" t="s" s="23">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
       <c r="L45" t="s" s="26">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M45" t="s" s="23">
         <v>22</v>
@@ -3850,7 +3855,7 @@
       <c r="N45" s="24"/>
       <c r="O45" s="24"/>
       <c r="P45" t="s" s="27">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" ht="32.05" customHeight="1">
@@ -3860,19 +3865,19 @@
       <c r="D46" s="18"/>
       <c r="E46" s="30"/>
       <c r="F46" t="s" s="22">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G46" t="s" s="23">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" t="s" s="23">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" t="s" s="26">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M46" t="s" s="23">
         <v>22</v>
@@ -3880,7 +3885,7 @@
       <c r="N46" s="24"/>
       <c r="O46" s="24"/>
       <c r="P46" t="s" s="27">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
@@ -3890,19 +3895,19 @@
       <c r="D47" s="18"/>
       <c r="E47" s="30"/>
       <c r="F47" t="s" s="22">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G47" t="s" s="23">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H47" s="24"/>
       <c r="I47" t="s" s="23">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
       <c r="L47" t="s" s="26">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M47" t="s" s="23">
         <v>22</v>
@@ -3910,7 +3915,7 @@
       <c r="N47" s="24"/>
       <c r="O47" s="24"/>
       <c r="P47" t="s" s="27">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" ht="32.05" customHeight="1">
@@ -3920,19 +3925,19 @@
       <c r="D48" s="18"/>
       <c r="E48" s="30"/>
       <c r="F48" t="s" s="22">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G48" t="s" s="23">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H48" s="24"/>
       <c r="I48" t="s" s="23">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" t="s" s="26">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M48" t="s" s="23">
         <v>22</v>
@@ -3940,7 +3945,7 @@
       <c r="N48" s="24"/>
       <c r="O48" s="24"/>
       <c r="P48" t="s" s="27">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" ht="32.05" customHeight="1">
@@ -3950,19 +3955,19 @@
       <c r="D49" s="18"/>
       <c r="E49" s="30"/>
       <c r="F49" t="s" s="22">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G49" t="s" s="23">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H49" s="24"/>
       <c r="I49" t="s" s="23">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
       <c r="L49" t="s" s="26">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M49" t="s" s="23">
         <v>22</v>
@@ -3970,7 +3975,7 @@
       <c r="N49" s="24"/>
       <c r="O49" s="24"/>
       <c r="P49" t="s" s="27">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
@@ -3980,10 +3985,10 @@
       <c r="D50" s="18"/>
       <c r="E50" s="30"/>
       <c r="F50" t="s" s="22">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G50" t="s" s="23">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" t="s" s="25">
@@ -3992,7 +3997,7 @@
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" t="s" s="26">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M50" t="s" s="23">
         <v>22</v>
@@ -4000,7 +4005,7 @@
       <c r="N50" s="24"/>
       <c r="O50" s="24"/>
       <c r="P50" t="s" s="27">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
@@ -4017,10 +4022,12 @@
       </c>
       <c r="H51" s="24"/>
       <c r="I51" t="s" s="23">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
+      <c r="K51" t="s" s="23">
+        <v>90</v>
+      </c>
       <c r="L51" t="s" s="26">
         <v>28</v>
       </c>
@@ -4030,45 +4037,47 @@
       <c r="N51" s="24"/>
       <c r="O51" s="24"/>
       <c r="P51" t="s" s="27">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="17">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" t="s" s="19">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D52" t="s" s="20">
         <v>1</v>
       </c>
       <c r="E52" t="s" s="21">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F52" t="s" s="22">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G52" t="s" s="23">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" t="s" s="23">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
+      <c r="K52" t="s" s="23">
+        <v>90</v>
+      </c>
       <c r="L52" t="s" s="26">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M52" t="s" s="23">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N52" s="24"/>
       <c r="O52" s="24"/>
       <c r="P52" t="s" s="27">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" ht="20.05" customHeight="1">
@@ -4078,19 +4087,19 @@
       <c r="D53" s="18"/>
       <c r="E53" s="30"/>
       <c r="F53" t="s" s="22">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G53" t="s" s="23">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H53" s="24"/>
       <c r="I53" t="s" s="23">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
       <c r="L53" t="s" s="26">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M53" t="s" s="23">
         <v>22</v>
@@ -4098,7 +4107,7 @@
       <c r="N53" s="24"/>
       <c r="O53" s="24"/>
       <c r="P53" t="s" s="27">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" ht="20.05" customHeight="1">
@@ -4108,19 +4117,21 @@
       <c r="D54" s="18"/>
       <c r="E54" s="30"/>
       <c r="F54" t="s" s="22">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G54" t="s" s="23">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H54" s="24"/>
       <c r="I54" t="s" s="25">
         <v>17</v>
       </c>
       <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
+      <c r="K54" t="s" s="23">
+        <v>20</v>
+      </c>
       <c r="L54" t="s" s="26">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M54" t="s" s="23">
         <v>22</v>
@@ -4128,18 +4139,18 @@
       <c r="N54" s="24"/>
       <c r="O54" s="24"/>
       <c r="P54" t="s" s="27">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="17">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B55" t="s" s="20">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C55" t="s" s="19">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D55" t="s" s="20">
         <v>32</v>
@@ -4148,19 +4159,19 @@
         <v>22</v>
       </c>
       <c r="F55" t="s" s="22">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G55" t="s" s="23">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" t="s" s="23">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
       <c r="L55" t="s" s="26">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M55" t="s" s="23">
         <v>22</v>
@@ -4168,39 +4179,39 @@
       <c r="N55" s="24"/>
       <c r="O55" s="24"/>
       <c r="P55" t="s" s="27">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="17">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B56" t="s" s="20">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C56" t="s" s="19">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D56" t="s" s="20">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s" s="21">
         <v>22</v>
       </c>
       <c r="F56" t="s" s="22">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G56" t="s" s="23">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H56" s="24"/>
       <c r="I56" t="s" s="23">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" t="s" s="26">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M56" t="s" s="23">
         <v>22</v>
@@ -4208,7 +4219,7 @@
       <c r="N56" s="24"/>
       <c r="O56" s="24"/>
       <c r="P56" t="s" s="27">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" ht="20.05" customHeight="1">
@@ -4218,10 +4229,10 @@
       <c r="D57" s="18"/>
       <c r="E57" s="30"/>
       <c r="F57" t="s" s="22">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G57" t="s" s="23">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" t="s" s="25">
@@ -4230,7 +4241,7 @@
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
       <c r="L57" t="s" s="26">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M57" t="s" s="23">
         <v>22</v>
@@ -4238,39 +4249,39 @@
       <c r="N57" s="24"/>
       <c r="O57" s="24"/>
       <c r="P57" t="s" s="27">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" ht="32.05" customHeight="1">
       <c r="A58" t="s" s="32">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B58" t="s" s="33">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C58" t="s" s="34">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D58" t="s" s="33">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s" s="35">
         <v>22</v>
       </c>
       <c r="F58" t="s" s="36">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G58" t="s" s="37">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H58" s="38"/>
       <c r="I58" t="s" s="37">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J58" s="38"/>
       <c r="K58" s="38"/>
       <c r="L58" t="s" s="39">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M58" t="s" s="37">
         <v>22</v>
@@ -4278,7 +4289,7 @@
       <c r="N58" s="38"/>
       <c r="O58" s="38"/>
       <c r="P58" t="s" s="40">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Master NIEM Document/Mapping_Spreadsheets/11 Creating New Objects - Complex Objects.xlsx
+++ b/Master NIEM Document/Mapping_Spreadsheets/11 Creating New Objects - Complex Objects.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>Crash Driver Report</t>
   </si>
@@ -688,34 +688,25 @@
     <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/nc:Person</t>
   </si>
   <si>
+    <t>j:Charge</t>
+  </si>
+  <si>
+    <t>j:ChargeType</t>
+  </si>
+  <si>
+    <t>A formal allegation that a specific person has committed a specific offense.</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/j:Charge</t>
+  </si>
+  <si>
     <t>Charge</t>
   </si>
   <si>
     <t>A committed offense.</t>
-  </si>
-  <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>j:Charge</t>
-  </si>
-  <si>
-    <t>j:ChargeType</t>
-  </si>
-  <si>
-    <t>A formal allegation that a specific person has committed a specific offense.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/j:Charge</t>
-  </si>
-  <si>
-    <t>j:JuvenileAsAdultIndicator</t>
-  </si>
-  <si>
-    <t>True if a juvenile is to be processed as an adult; false otherwise.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/j:JuvenileAsAdultIndicator</t>
   </si>
   <si>
     <t>/ext:CrashDriverInfo/j:Charge</t>
@@ -2321,7 +2312,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P58"/>
+  <dimension ref="A2:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -4041,24 +4032,16 @@
       </c>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="17">
+      <c r="A52" s="28"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="30"/>
+      <c r="F52" t="s" s="22">
         <v>225</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" t="s" s="19">
+      <c r="G52" t="s" s="23">
         <v>226</v>
-      </c>
-      <c r="D52" t="s" s="20">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s" s="21">
-        <v>227</v>
-      </c>
-      <c r="F52" t="s" s="22">
-        <v>228</v>
-      </c>
-      <c r="G52" t="s" s="23">
-        <v>229</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" t="s" s="23">
@@ -4069,37 +4052,47 @@
         <v>90</v>
       </c>
       <c r="L52" t="s" s="26">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M52" t="s" s="23">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N52" s="24"/>
       <c r="O52" s="24"/>
       <c r="P52" t="s" s="27">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" t="s" s="17">
+        <v>230</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" t="s" s="19">
         <v>231</v>
       </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="28"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="30"/>
+      <c r="D53" t="s" s="20">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s" s="21">
+        <v>228</v>
+      </c>
       <c r="F53" t="s" s="22">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G53" t="s" s="23">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="H53" s="24"/>
-      <c r="I53" t="s" s="23">
-        <v>220</v>
+      <c r="I53" t="s" s="25">
+        <v>17</v>
       </c>
       <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
+      <c r="K53" t="s" s="23">
+        <v>20</v>
+      </c>
       <c r="L53" t="s" s="26">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M53" t="s" s="23">
         <v>22</v>
@@ -4107,31 +4100,39 @@
       <c r="N53" s="24"/>
       <c r="O53" s="24"/>
       <c r="P53" t="s" s="27">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" t="s" s="17">
+        <v>230</v>
+      </c>
+      <c r="B54" t="s" s="20">
+        <v>233</v>
+      </c>
+      <c r="C54" t="s" s="19">
         <v>234</v>
       </c>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="28"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="30"/>
+      <c r="D54" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s" s="21">
+        <v>22</v>
+      </c>
       <c r="F54" t="s" s="22">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G54" t="s" s="23">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="H54" s="24"/>
-      <c r="I54" t="s" s="25">
-        <v>17</v>
+      <c r="I54" t="s" s="23">
+        <v>225</v>
       </c>
       <c r="J54" s="24"/>
-      <c r="K54" t="s" s="23">
-        <v>20</v>
-      </c>
+      <c r="K54" s="24"/>
       <c r="L54" t="s" s="26">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M54" t="s" s="23">
         <v>22</v>
@@ -4139,39 +4140,39 @@
       <c r="N54" s="24"/>
       <c r="O54" s="24"/>
       <c r="P54" t="s" s="27">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="17">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="20">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C55" t="s" s="19">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D55" t="s" s="20">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="E55" t="s" s="21">
         <v>22</v>
       </c>
       <c r="F55" t="s" s="22">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G55" t="s" s="23">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" t="s" s="23">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
       <c r="L55" t="s" s="26">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M55" t="s" s="23">
         <v>22</v>
@@ -4179,39 +4180,29 @@
       <c r="N55" s="24"/>
       <c r="O55" s="24"/>
       <c r="P55" t="s" s="27">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="17">
-        <v>225</v>
-      </c>
-      <c r="B56" t="s" s="20">
-        <v>241</v>
-      </c>
-      <c r="C56" t="s" s="19">
-        <v>242</v>
-      </c>
-      <c r="D56" t="s" s="20">
-        <v>158</v>
-      </c>
-      <c r="E56" t="s" s="21">
-        <v>22</v>
-      </c>
+      <c r="A56" s="28"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="30"/>
       <c r="F56" t="s" s="22">
         <v>243</v>
       </c>
       <c r="G56" t="s" s="23">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="H56" s="24"/>
-      <c r="I56" t="s" s="23">
-        <v>228</v>
+      <c r="I56" t="s" s="25">
+        <v>17</v>
       </c>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" t="s" s="26">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M56" t="s" s="23">
         <v>22</v>
@@ -4219,77 +4210,47 @@
       <c r="N56" s="24"/>
       <c r="O56" s="24"/>
       <c r="P56" t="s" s="27">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="28"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="30"/>
-      <c r="F57" t="s" s="22">
         <v>246</v>
       </c>
-      <c r="G57" t="s" s="23">
+    </row>
+    <row r="57" ht="32.05" customHeight="1">
+      <c r="A57" t="s" s="32">
+        <v>230</v>
+      </c>
+      <c r="B57" t="s" s="33">
         <v>247</v>
       </c>
-      <c r="H57" s="24"/>
-      <c r="I57" t="s" s="25">
-        <v>17</v>
-      </c>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" t="s" s="26">
+      <c r="C57" t="s" s="34">
         <v>248</v>
       </c>
-      <c r="M57" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" t="s" s="27">
+      <c r="D57" t="s" s="33">
+        <v>158</v>
+      </c>
+      <c r="E57" t="s" s="35">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s" s="36">
         <v>249</v>
       </c>
-    </row>
-    <row r="58" ht="32.05" customHeight="1">
-      <c r="A58" t="s" s="32">
-        <v>225</v>
-      </c>
-      <c r="B58" t="s" s="33">
+      <c r="G57" t="s" s="37">
+        <v>160</v>
+      </c>
+      <c r="H57" s="38"/>
+      <c r="I57" t="s" s="37">
+        <v>243</v>
+      </c>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" t="s" s="39">
         <v>250</v>
       </c>
-      <c r="C58" t="s" s="34">
+      <c r="M57" t="s" s="37">
+        <v>22</v>
+      </c>
+      <c r="N57" s="38"/>
+      <c r="O57" s="38"/>
+      <c r="P57" t="s" s="40">
         <v>251</v>
-      </c>
-      <c r="D58" t="s" s="33">
-        <v>158</v>
-      </c>
-      <c r="E58" t="s" s="35">
-        <v>22</v>
-      </c>
-      <c r="F58" t="s" s="36">
-        <v>252</v>
-      </c>
-      <c r="G58" t="s" s="37">
-        <v>160</v>
-      </c>
-      <c r="H58" s="38"/>
-      <c r="I58" t="s" s="37">
-        <v>246</v>
-      </c>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" t="s" s="39">
-        <v>253</v>
-      </c>
-      <c r="M58" t="s" s="37">
-        <v>22</v>
-      </c>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" t="s" s="40">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
